--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">base</t>
   </si>
   <si>
-    <t xml:space="preserve">port-moresby</t>
+    <t xml:space="preserve">matrice_pa</t>
   </si>
   <si>
     <t xml:space="preserve">general</t>
@@ -328,9 +328,6 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">network_preparation</t>
   </si>
   <si>
@@ -391,19 +388,31 @@
     <t xml:space="preserve">generation</t>
   </si>
   <si>
+    <t xml:space="preserve">correction_pa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si on veut corriger les émissions/attractions</t>
+  </si>
+  <si>
     <t xml:space="preserve">motor_rate</t>
   </si>
   <si>
     <t xml:space="preserve">Taux de motorisation</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_mobility</t>
+    <t xml:space="preserve">pop_attraction</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de voyage par personne</t>
   </si>
   <si>
-    <t xml:space="preserve">job_mobility</t>
+    <t xml:space="preserve">job_attraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop_production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_production</t>
   </si>
   <si>
     <t xml:space="preserve">to_day</t>
@@ -427,6 +436,15 @@
     <t xml:space="preserve">step_distribution</t>
   </si>
   <si>
+    <t xml:space="preserve">symmetrize_matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coût dans la matrice d’impédance calculé en fonction de la distance</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_car</t>
   </si>
   <si>
@@ -484,6 +502,9 @@
     <t xml:space="preserve">logit</t>
   </si>
   <si>
+    <t xml:space="preserve">vol_calib</t>
+  </si>
+  <si>
     <t xml:space="preserve">car_cost</t>
   </si>
   <si>
@@ -508,6 +529,12 @@
     <t xml:space="preserve">price</t>
   </si>
   <si>
+    <t xml:space="preserve">walking_penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalité pour les route_type= walk</t>
+  </si>
+  <si>
     <t xml:space="preserve">preparation_logit</t>
   </si>
   <si>
@@ -553,6 +580,12 @@
     <t xml:space="preserve">min/transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">walking_cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking time cutoff</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_utility_car</t>
   </si>
   <si>
@@ -562,9 +595,6 @@
     <t xml:space="preserve">DOIT ÊTRE =0</t>
   </si>
   <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
     <t xml:space="preserve">car</t>
   </si>
   <si>
@@ -578,6 +608,12 @@
   </si>
   <si>
     <t xml:space="preserve">tram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMV</t>
   </si>
   <si>
     <t xml:space="preserve">mode_utility_pt</t>
@@ -1128,12 +1164,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ50"/>
+  <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,11 +1177,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="81.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="12" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="748" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="747" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1173,6 +1209,7 @@
       <c r="H1" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="ALX1" s="0"/>
       <c r="ALY1" s="0"/>
       <c r="ALZ1" s="0"/>
       <c r="AMA1" s="0"/>
@@ -1202,6 +1239,7 @@
       <c r="H2" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="ALX2" s="0"/>
       <c r="ALY2" s="0"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -1299,42 +1337,42 @@
       <c r="F6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>47</v>
+      <c r="G6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>47</v>
+      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>46</v>
@@ -1350,39 +1388,39 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H9" s="12" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>500</v>
@@ -1393,16 +1431,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>4</v>
@@ -1413,13 +1451,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>37</v>
@@ -1435,13 +1473,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>37</v>
@@ -1455,16 +1493,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>10</v>
@@ -1475,13 +1513,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>37</v>
@@ -1495,705 +1533,943 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="H19" s="12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G23" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H23" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="F26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="F27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H26" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="F29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="E31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="12" t="n">
+        <v>950</v>
+      </c>
+      <c r="H31" s="12" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="12" t="n">
+        <v>950</v>
+      </c>
+      <c r="H32" s="12" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="12" t="n">
         <v>10800</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H33" s="12" t="n">
         <v>10800</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="10" t="s">
+    <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="G34" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>0.00032</v>
-      </c>
-      <c r="H31" s="12" t="n">
-        <v>0.00032</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H32" s="12" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="G35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H33" s="12" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="H35" s="12" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>112</v>
+      <c r="F36" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>114</v>
+      <c r="E37" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
       <c r="H37" s="12" t="n">
-        <v>1</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G38" s="12" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H38" s="12" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="H39" s="12" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="G42" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" s="12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" s="12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="G43" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H43" s="12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="D44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="G44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="D45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="G45" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D46" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="G46" s="12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="D47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="E47" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
+      <c r="G47" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H47" s="12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="25" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H47" s="25" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="12" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H48" s="12" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G50" s="25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H50" s="25" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="25" t="n">
+        <v>-600</v>
+      </c>
+      <c r="H57" s="25" t="n">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matrice_pa</t>
   </si>
   <si>
     <t xml:space="preserve">general</t>
@@ -1166,10 +1163,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="F37" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topRight" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1180,8 +1177,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="81.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="12" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="747" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="746" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,9 +1203,7 @@
       <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="ALW1" s="0"/>
       <c r="ALX1" s="0"/>
       <c r="ALY1" s="0"/>
       <c r="ALZ1" s="0"/>
@@ -1225,20 +1220,18 @@
     </row>
     <row r="2" s="13" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="ALW2" s="0"/>
       <c r="ALX2" s="0"/>
       <c r="ALY2" s="0"/>
       <c r="ALZ2" s="0"/>
@@ -1255,509 +1248,432 @@
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="H3" s="12" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="H4" s="12" t="n">
-        <f aca="false">4/SQRT(2)</f>
-        <v>2.82842712474619</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="G6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H8" s="16" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="H10" s="12" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="12" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="H12" s="12" t="n">
-        <f aca="false">4/SQRT(2)</f>
-        <v>2.82842712474619</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>10000000</v>
       </c>
-      <c r="H13" s="12" t="n">
-        <v>10000000</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H14" s="12" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
-      <c r="H15" s="12" t="n">
-        <f aca="false">30</f>
-        <v>30</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H17" s="12" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="H18" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H19" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>1.5</v>
       </c>
-      <c r="H20" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H21" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="F22" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H23" s="16" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="F24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="F25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="F26" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>0</v>
@@ -1765,19 +1681,16 @@
       <c r="G27" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>0</v>
@@ -1785,19 +1698,16 @@
       <c r="G28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>1</v>
@@ -1805,19 +1715,16 @@
       <c r="G29" s="12" t="n">
         <v>0.01</v>
       </c>
-      <c r="H29" s="12" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>1</v>
@@ -1825,651 +1732,549 @@
       <c r="G30" s="12" t="n">
         <v>0.01</v>
       </c>
-      <c r="H30" s="12" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>950</v>
       </c>
-      <c r="H31" s="12" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>950</v>
       </c>
-      <c r="H32" s="12" t="n">
-        <v>950</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>10800</v>
       </c>
-      <c r="H33" s="12" t="n">
-        <v>10800</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>0.00032</v>
       </c>
-      <c r="H37" s="12" t="n">
-        <v>0.00032</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>1.6</v>
       </c>
-      <c r="H38" s="12" t="n">
-        <v>1.6</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>1.3</v>
       </c>
-      <c r="H39" s="12" t="n">
-        <v>1.3</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="F41" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="H42" s="12" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="H43" s="12" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="H45" s="12" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>0.1</v>
       </c>
-      <c r="H46" s="12" t="n">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H47" s="12" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="F48" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>2700</v>
       </c>
-      <c r="H48" s="12" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="25" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H50" s="25" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H52" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H53" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H54" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H55" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H56" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="25" t="n">
         <v>-600</v>
       </c>
-      <c r="H57" s="25" t="n">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="H61" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -274,6 +274,9 @@
     <t xml:space="preserve">base</t>
   </si>
   <si>
+    <t xml:space="preserve">futur</t>
+  </si>
+  <si>
     <t xml:space="preserve">general</t>
   </si>
   <si>
@@ -583,6 +586,9 @@
     <t xml:space="preserve">Walking time cutoff</t>
   </si>
   <si>
+    <t xml:space="preserve">occupation_rate_car</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_utility_car</t>
   </si>
   <si>
@@ -599,6 +605,9 @@
   </si>
   <si>
     <t xml:space="preserve">rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">express_bus</t>
   </si>
   <si>
     <t xml:space="preserve">bus</t>
@@ -1161,12 +1170,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ63"/>
+  <dimension ref="A1:AMJ66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F37" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="topRight" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H62" activeCellId="0" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,7 +1186,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="81.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="12" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="12" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="746" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -1202,6 +1211,9 @@
       </c>
       <c r="G1" s="13" t="s">
         <v>28</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="ALW1" s="0"/>
       <c r="ALX1" s="0"/>
@@ -1220,15 +1232,18 @@
     </row>
     <row r="2" s="13" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="ALW2" s="0"/>
@@ -1248,432 +1263,509 @@
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>500</v>
       </c>
+      <c r="H3" s="12" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
+      <c r="H4" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="H5" s="12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="H6" s="14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="H7" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="H8" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>500</v>
       </c>
+      <c r="H10" s="12" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="H11" s="12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
+      <c r="H12" s="12" t="n">
+        <f aca="false">4/SQRT(2)</f>
+        <v>2.82842712474619</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>10000000</v>
       </c>
+      <c r="H13" s="12" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>10</v>
       </c>
+      <c r="H14" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
+      <c r="H15" s="12" t="n">
+        <f aca="false">30</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="B17" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H22" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="H23" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>0</v>
@@ -1681,16 +1773,19 @@
       <c r="G27" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>0</v>
@@ -1698,16 +1793,19 @@
       <c r="G28" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>1</v>
@@ -1715,16 +1813,19 @@
       <c r="G29" s="12" t="n">
         <v>0.01</v>
       </c>
+      <c r="H29" s="12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>1</v>
@@ -1732,549 +1833,713 @@
       <c r="G30" s="12" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>950</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="12" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="F32" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>950</v>
       </c>
+      <c r="H32" s="12" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>10800</v>
       </c>
+      <c r="H33" s="12" t="n">
+        <v>10800</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H34" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H35" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>0.00032</v>
       </c>
+      <c r="H37" s="12" t="n">
+        <v>0.00032</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>1.6</v>
       </c>
+      <c r="H38" s="12" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>1.3</v>
       </c>
+      <c r="H39" s="12" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H41" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>30</v>
       </c>
+      <c r="H42" s="12" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>15</v>
       </c>
+      <c r="H43" s="12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>1</v>
       </c>
+      <c r="H44" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>0.5</v>
       </c>
+      <c r="H45" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>0.1</v>
       </c>
+      <c r="H46" s="12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>10</v>
       </c>
+      <c r="H47" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>2700</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
+      <c r="H48" s="12" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="20" t="s">
+      <c r="F49" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="25" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="18"/>
+      <c r="F50" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>137</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-10</v>
+      </c>
+      <c r="H51" s="25" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B52" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="H55" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
-        <v>142</v>
+      <c r="B56" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" s="25" t="n">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="D59" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>136</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-600</v>
+      </c>
+      <c r="H59" s="25" t="n">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="26"/>
       <c r="D60" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="26"/>
       <c r="D61" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>141</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="12" t="n">
+      <c r="H62" s="25" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t xml:space="preserve">Walking time cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_perception_after_cutoff</t>
   </si>
   <si>
     <t xml:space="preserve">occupation_rate_car</t>
@@ -1170,18 +1173,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ66"/>
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H62" activeCellId="0" sqref="H62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="F25" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topRight" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="81.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.58"/>
@@ -1278,7 +1281,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H3" s="12" t="n">
         <v>500</v>
@@ -1301,8 +1304,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="12" t="n">
-        <f aca="false">4/SQRT(2)</f>
-        <v>2.82842712474619</v>
+        <v>1</v>
       </c>
       <c r="H4" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
@@ -1326,7 +1328,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12" t="n">
         <v>4</v>
@@ -1471,8 +1473,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="12" t="n">
-        <f aca="false">4/SQRT(2)</f>
-        <v>2.82842712474619</v>
+        <v>10</v>
       </c>
       <c r="H12" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
@@ -1837,7 +1838,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>82</v>
       </c>
@@ -1854,13 +1855,13 @@
         <v>54</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="12" t="n">
         <v>950</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="12" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="12" t="n">
         <v>950</v>
@@ -1894,7 +1895,7 @@
         <v>101</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>10800</v>
+        <v>50000</v>
       </c>
       <c r="H33" s="12" t="n">
         <v>10800</v>
@@ -2077,7 +2078,7 @@
         <v>121</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H43" s="12" t="n">
         <v>15</v>
@@ -2168,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="G48" s="12" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="12" t="n">
         <v>2700</v>
@@ -2188,84 +2189,83 @@
         <v>37</v>
       </c>
       <c r="G49" s="12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="D50" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="D51" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="25" t="n">
-        <v>-10</v>
-      </c>
-      <c r="H51" s="25" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G52" s="25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H52" s="25" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>140</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22" t="s">
@@ -2280,13 +2280,13 @@
     </row>
     <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>141</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22" t="s">
@@ -2301,13 +2301,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>142</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22" t="s">
@@ -2322,13 +2322,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>143</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22" t="s">
@@ -2343,13 +2343,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>144</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22" t="s">
@@ -2363,77 +2363,77 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="21" t="n">
+      <c r="D58" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="25" t="n">
-        <v>-600</v>
-      </c>
-      <c r="H59" s="25" t="n">
-        <v>-600</v>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
         <v>37</v>
       </c>
       <c r="G60" s="25" t="n">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H60" s="25" t="n">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>140</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22" t="s">
@@ -2448,13 +2448,13 @@
     </row>
     <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>141</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22" t="s">
@@ -2464,19 +2464,18 @@
         <v>0</v>
       </c>
       <c r="H62" s="25" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="26"/>
       <c r="D63" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22" t="s">
@@ -2486,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="H63" s="25" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22" t="s">
@@ -2513,13 +2512,14 @@
     </row>
     <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>144</v>
       </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22" t="s">
@@ -2532,14 +2532,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="12" t="n">
+    <row r="66" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">futur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futur_express</t>
   </si>
   <si>
     <t xml:space="preserve">general</t>
@@ -1175,10 +1178,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F25" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="topRight" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1189,7 +1192,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="81.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="17.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="12" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="12" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="746" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -1217,6 +1220,9 @@
       </c>
       <c r="H1" s="13" t="s">
         <v>29</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="ALW1" s="0"/>
       <c r="ALX1" s="0"/>
@@ -1235,18 +1241,21 @@
     </row>
     <row r="2" s="13" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="ALW2" s="0"/>
@@ -1266,19 +1275,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="12" t="n">
         <v>150</v>
@@ -1286,22 +1295,25 @@
       <c r="H3" s="12" t="n">
         <v>500</v>
       </c>
+      <c r="I3" s="12" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>1</v>
@@ -1310,22 +1322,25 @@
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
+      <c r="I4" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="12" t="n">
         <v>1</v>
@@ -1333,59 +1348,68 @@
       <c r="H5" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="I5" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="14" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="G7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="16" t="n">
         <f aca="false">FALSE()</f>
@@ -1395,22 +1419,26 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="I8" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>100</v>
@@ -1418,19 +1446,22 @@
       <c r="H9" s="12" t="n">
         <v>100</v>
       </c>
+      <c r="I9" s="12" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>500</v>
@@ -1438,19 +1469,22 @@
       <c r="H10" s="12" t="n">
         <v>500</v>
       </c>
+      <c r="I10" s="12" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>4</v>
@@ -1458,19 +1492,22 @@
       <c r="H11" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="I11" s="12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>10</v>
@@ -1479,19 +1516,22 @@
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
+      <c r="I12" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>10000000</v>
@@ -1499,19 +1539,22 @@
       <c r="H13" s="12" t="n">
         <v>10000000</v>
       </c>
+      <c r="I13" s="12" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>10</v>
@@ -1519,19 +1562,22 @@
       <c r="H14" s="12" t="n">
         <v>10</v>
       </c>
+      <c r="I14" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">30</f>
@@ -1541,39 +1587,46 @@
         <f aca="false">30</f>
         <v>30</v>
       </c>
+      <c r="I15" s="12" t="n">
+        <f aca="false">30</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>0.5</v>
@@ -1581,19 +1634,22 @@
       <c r="H17" s="12" t="n">
         <v>0.5</v>
       </c>
+      <c r="I17" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>1.5</v>
@@ -1601,19 +1657,22 @@
       <c r="H18" s="12" t="n">
         <v>1.5</v>
       </c>
+      <c r="I18" s="12" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>0.5</v>
@@ -1621,19 +1680,22 @@
       <c r="H19" s="12" t="n">
         <v>0.5</v>
       </c>
+      <c r="I19" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>1.5</v>
@@ -1641,19 +1703,22 @@
       <c r="H20" s="12" t="n">
         <v>1.5</v>
       </c>
+      <c r="I20" s="12" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>0.5</v>
@@ -1661,36 +1726,42 @@
       <c r="H21" s="12" t="n">
         <v>0.5</v>
       </c>
+      <c r="I21" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="16" t="n">
         <f aca="false">FALSE()</f>
@@ -1700,73 +1771,86 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="I23" s="16" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="17" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>0</v>
@@ -1775,18 +1859,21 @@
         <v>1</v>
       </c>
       <c r="H27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>0</v>
@@ -1795,18 +1882,21 @@
         <v>1</v>
       </c>
       <c r="H28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>1</v>
@@ -1817,16 +1907,19 @@
       <c r="H29" s="12" t="n">
         <v>0.01</v>
       </c>
+      <c r="I29" s="12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>1</v>
@@ -1837,22 +1930,25 @@
       <c r="H30" s="12" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" s="12" t="n">
         <v>1000</v>
@@ -1860,22 +1956,25 @@
       <c r="H31" s="12" t="n">
         <v>950</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="F32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>1000</v>
@@ -1883,16 +1982,19 @@
       <c r="H32" s="12" t="n">
         <v>950</v>
       </c>
+      <c r="I32" s="12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="12" t="n">
         <v>50000</v>
@@ -1900,70 +2002,82 @@
       <c r="H33" s="12" t="n">
         <v>10800</v>
       </c>
+      <c r="I33" s="12" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G34" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G35" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G36" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="12" t="n">
         <v>0.00032</v>
@@ -1971,16 +2085,19 @@
       <c r="H37" s="12" t="n">
         <v>0.00032</v>
       </c>
+      <c r="I37" s="12" t="n">
+        <v>0.00032</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>1.6</v>
@@ -1988,16 +2105,19 @@
       <c r="H38" s="12" t="n">
         <v>1.6</v>
       </c>
+      <c r="I38" s="12" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G39" s="12" t="n">
         <v>1.3</v>
@@ -2005,57 +2125,66 @@
       <c r="H39" s="12" t="n">
         <v>1.3</v>
       </c>
+      <c r="I39" s="12" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G42" s="12" t="n">
         <v>30</v>
@@ -2063,19 +2192,22 @@
       <c r="H42" s="12" t="n">
         <v>30</v>
       </c>
+      <c r="I42" s="12" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G43" s="12" t="n">
         <v>10</v>
@@ -2083,33 +2215,39 @@
       <c r="H43" s="12" t="n">
         <v>15</v>
       </c>
+      <c r="I43" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G44" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="12" t="n">
         <v>0.5</v>
@@ -2117,16 +2255,19 @@
       <c r="H45" s="12" t="n">
         <v>0.5</v>
       </c>
+      <c r="I45" s="12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G46" s="12" t="n">
         <v>0.1</v>
@@ -2134,19 +2275,22 @@
       <c r="H46" s="12" t="n">
         <v>0.1</v>
       </c>
+      <c r="I46" s="12" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G47" s="12" t="n">
         <v>10</v>
@@ -2154,19 +2298,22 @@
       <c r="H47" s="12" t="n">
         <v>10</v>
       </c>
+      <c r="I47" s="12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" s="12" t="n">
         <v>1800</v>
@@ -2174,19 +2321,22 @@
       <c r="H48" s="12" t="n">
         <v>2700</v>
       </c>
+      <c r="I48" s="12" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="F49" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" s="12" t="n">
         <v>5</v>
@@ -2194,40 +2344,46 @@
       <c r="H49" s="12" t="n">
         <v>2</v>
       </c>
+      <c r="I49" s="12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" s="21" t="n">
         <v>0</v>
@@ -2235,20 +2391,23 @@
       <c r="H51" s="21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" s="25" t="n">
         <v>-2</v>
@@ -2256,167 +2415,191 @@
       <c r="H52" s="25" t="n">
         <v>-10</v>
       </c>
+      <c r="I52" s="25" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G55" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H55" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H57" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H58" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" s="21" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60" s="25" t="n">
         <v>-600</v>
@@ -2424,62 +2607,71 @@
       <c r="H60" s="25" t="n">
         <v>-600</v>
       </c>
+      <c r="I60" s="25" t="n">
+        <v>-600</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" s="25" t="n">
         <v>0</v>
@@ -2487,80 +2679,95 @@
       <c r="H63" s="25" t="n">
         <v>-10</v>
       </c>
+      <c r="I63" s="25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H64" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="D66" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" s="25" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -1178,10 +1178,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topRight" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inputs/parameters.xlsx
+++ b/inputs/parameters.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
   <si>
     <t xml:space="preserve">Fichier de paramètre du modèle Quetzal Montréal</t>
   </si>
@@ -331,6 +331,9 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
+    <t xml:space="preserve">survey_comparison</t>
+  </si>
+  <si>
     <t xml:space="preserve">network_preparation</t>
   </si>
   <si>
@@ -694,7 +697,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +714,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFD1D1D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -823,7 +832,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -884,6 +893,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,39 +905,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,12 +1189,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ67"/>
+  <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C16" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="topRight" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,505 +1388,502 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>1</v>
+      <c r="G7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="16" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="16" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="12" t="n">
+      <c r="F10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I10" s="12" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="12" t="n">
+      <c r="G11" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H11" s="12" t="n">
         <v>500</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I11" s="12" t="n">
         <v>500</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H13" s="12" t="n">
         <f aca="false">4/SQRT(2)</f>
         <v>2.82842712474619</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I13" s="12" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="H13" s="12" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>10000000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="F15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="12" t="n">
+      <c r="D16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
-      <c r="H15" s="12" t="n">
+      <c r="H16" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I16" s="12" t="n">
         <f aca="false">30</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="D17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I19" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G24" s="17" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H24" s="17" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I23" s="16" t="n">
+      <c r="I24" s="17" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="25" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>1</v>
+      <c r="F27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>0</v>
@@ -1890,36 +1900,36 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="F29" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I29" s="12" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>1</v>
@@ -1934,47 +1944,44 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>55</v>
+      <c r="F31" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>1000</v>
+        <v>0.01</v>
       </c>
       <c r="H31" s="12" t="n">
-        <v>950</v>
+        <v>0.01</v>
       </c>
       <c r="I31" s="12" t="n">
-        <v>1000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="F32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" s="12" t="n">
         <v>1000</v>
@@ -1986,49 +1993,55 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="E33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="12" t="n">
+        <v>950</v>
+      </c>
+      <c r="I33" s="12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="D34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="12" t="n">
         <v>50000</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H34" s="12" t="n">
         <v>10800</v>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I34" s="12" t="n">
         <v>50000</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>104</v>
@@ -2048,728 +2061,745 @@
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>109</v>
+      <c r="F37" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" t="n">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12" t="n">
-        <v>0.00032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="G38" s="12" t="n">
-        <v>1.6</v>
+        <v>0.00032</v>
       </c>
       <c r="H38" s="12" t="n">
-        <v>1.6</v>
+        <v>0.00032</v>
       </c>
       <c r="I38" s="12" t="n">
-        <v>1.6</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="G39" s="12" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H39" s="12" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="I39" s="12" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="F40" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G40" s="12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H40" s="12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I40" s="12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="D41" s="10"/>
       <c r="F41" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>120</v>
+      <c r="F42" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G42" s="12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H42" s="12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I42" s="12" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D43" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="G43" s="12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H43" s="12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I43" s="12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="G44" s="12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H44" s="12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I44" s="12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="G45" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H45" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="G46" s="12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="G47" s="12" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H47" s="12" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I47" s="12" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G48" s="12" t="n">
-        <v>1800</v>
+        <v>10</v>
       </c>
       <c r="H48" s="12" t="n">
-        <v>2700</v>
+        <v>10</v>
       </c>
       <c r="I48" s="12" t="n">
-        <v>1800</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F49" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="12" t="n">
-        <v>5</v>
+        <v>1800</v>
       </c>
       <c r="H49" s="12" t="n">
-        <v>2</v>
+        <v>2700</v>
       </c>
       <c r="I49" s="12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G50" s="12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H50" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="D51" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="D52" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="25" t="n">
+      <c r="D53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="26" t="n">
         <v>-2</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H53" s="26" t="n">
         <v>-10</v>
       </c>
-      <c r="I52" s="25" t="n">
+      <c r="I53" s="26" t="n">
         <v>-2</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="23" t="s">
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="23" t="s">
+      <c r="D61" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="26" t="n">
+        <v>-600</v>
+      </c>
+      <c r="H61" s="26" t="n">
+        <v>-600</v>
+      </c>
+      <c r="I61" s="26" t="n">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="23" t="s">
+      <c r="D62" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="23" t="s">
+      <c r="D63" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="23" t="s">
+      <c r="D64" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="26" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I64" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="23" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
+      <c r="C66" s="27"/>
+      <c r="D66" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="25" t="n">
-        <v>-600</v>
-      </c>
-      <c r="H60" s="25" t="n">
-        <v>-600</v>
-      </c>
-      <c r="I60" s="25" t="n">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="23" t="s">
+      <c r="D67" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="25" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I63" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
